--- a/sampel_data/Parking Equipment Two 1.1.24.xlsx
+++ b/sampel_data/Parking Equipment Two 1.1.24.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="451">
   <si>
     <t>Printed</t>
   </si>
@@ -1350,6 +1350,21 @@
   </si>
   <si>
     <t>Name / Parking site 6</t>
+  </si>
+  <si>
+    <t>1.20.01</t>
+  </si>
+  <si>
+    <t>1.18.18</t>
+  </si>
+  <si>
+    <t>1.18.06</t>
+  </si>
+  <si>
+    <t>1.17.21</t>
+  </si>
+  <si>
+    <t>00.23.36</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1465,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -1522,6 +1537,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="1" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="1" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -15990,10 +16008,10 @@
       <c r="D2" s="11">
         <v>45292.43200231482</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="24">
+      <c r="E2" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="F2" s="25">
         <v>21.6</v>
       </c>
       <c r="G2" s="13">
@@ -16026,8 +16044,8 @@
       <c r="D3" s="11">
         <v>45292.38072916667</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>20</v>
+      <c r="E3" s="24" t="s">
+        <v>447</v>
       </c>
       <c r="F3" s="13">
         <v>21.6</v>
@@ -16062,8 +16080,8 @@
       <c r="D4" s="11">
         <v>45292.42204861111</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>21</v>
+      <c r="E4" s="24" t="s">
+        <v>448</v>
       </c>
       <c r="F4" s="13">
         <v>21.6</v>
@@ -16098,8 +16116,8 @@
       <c r="D5" s="11">
         <v>45292.405625</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>22</v>
+      <c r="E5" s="24" t="s">
+        <v>449</v>
       </c>
       <c r="F5" s="13">
         <v>21.6</v>
@@ -16134,8 +16152,8 @@
       <c r="D6" s="11">
         <v>45292.48947916667</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>23</v>
+      <c r="E6" s="24" t="s">
+        <v>450</v>
       </c>
       <c r="F6" s="13">
         <v>14.4</v>
